--- a/dist/files/xls/5000301-01-001-list-titulnyy-dp.xlsx
+++ b/dist/files/xls/5000301-01-001-list-titulnyy-dp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\web\500.СТП\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="лист титульный ДП" sheetId="1" r:id="rId1"/>
@@ -154,8 +154,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,14 +215,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="GOST_type_A"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <i/>
       <sz val="20"/>
       <color theme="1"/>
@@ -275,6 +267,14 @@
       <name val="GOST_type_A"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="GOST_type_A"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -652,179 +652,179 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,16 +1158,18 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:Q20"/>
+      <selection activeCell="H16" sqref="H16:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
+    <col min="2" max="8" width="8.75" style="6"/>
+    <col min="9" max="9" width="8.75" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1189,7 +1191,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="18.75">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1211,7 +1213,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="25.15" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1233,7 +1235,7 @@
       <c r="S3" s="14"/>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="25.15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1255,7 +1257,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="18.75">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1277,7 +1279,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="18.75">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1299,7 +1301,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="18.75">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1321,7 +1323,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="18.75">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1343,7 +1345,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="18.75">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1365,7 +1367,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1387,7 +1389,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="18.75">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1409,7 +1411,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="18.75">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1431,75 +1433,75 @@
       <c r="S12" s="8"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="13.15" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="13.15" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="1:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="13.15" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="30" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1507,23 +1509,23 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="9"/>
     </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="30" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1531,23 +1533,23 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="9"/>
     </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="30" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1555,23 +1557,23 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="30" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1579,23 +1581,23 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="30" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1603,23 +1605,23 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="18.75">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1641,7 +1643,7 @@
       <c r="S21" s="8"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="18.75">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1663,7 +1665,7 @@
       <c r="S22" s="8"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="18.75">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1685,7 +1687,7 @@
       <c r="S23" s="8"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="18.75">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1707,7 +1709,7 @@
       <c r="S24" s="8"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="18.75">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1729,7 +1731,7 @@
       <c r="S25" s="8"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="18.75">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1751,19 +1753,19 @@
       <c r="S26" s="8"/>
       <c r="T26" s="9"/>
     </row>
-    <row r="27" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="25.15" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
@@ -1775,29 +1777,29 @@
       <c r="S27" s="17"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30" t="s">
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="P28" s="30"/>
+      <c r="P28" s="58"/>
       <c r="Q28" s="16" t="s">
         <v>16</v>
       </c>
@@ -1809,7 +1811,7 @@
       </c>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" ht="16.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="16.899999999999999" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -1831,19 +1833,19 @@
       <c r="S29" s="17"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="25.15" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -1855,29 +1857,29 @@
       <c r="S30" s="17"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
+    <row r="31" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A31" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30" t="s">
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="30"/>
+      <c r="P31" s="58"/>
       <c r="Q31" s="16" t="s">
         <v>16</v>
       </c>
@@ -1889,29 +1891,29 @@
       </c>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
+    <row r="32" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A32" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30" t="s">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30" t="s">
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="P32" s="30"/>
+      <c r="P32" s="58"/>
       <c r="Q32" s="16" t="s">
         <v>16</v>
       </c>
@@ -1923,29 +1925,29 @@
       </c>
       <c r="T32" s="19"/>
     </row>
-    <row r="33" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A33" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30" t="s">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30" t="s">
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="P33" s="30"/>
+      <c r="P33" s="58"/>
       <c r="Q33" s="16" t="s">
         <v>16</v>
       </c>
@@ -1957,29 +1959,29 @@
       </c>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31" t="s">
+    <row r="34" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A34" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30" t="s">
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="P34" s="30"/>
+      <c r="P34" s="58"/>
       <c r="Q34" s="16" t="s">
         <v>16</v>
       </c>
@@ -1991,7 +1993,7 @@
       </c>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:20" ht="16.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="16.899999999999999" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2013,19 +2015,19 @@
       <c r="S35" s="17"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="25.15" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -2037,29 +2039,29 @@
       <c r="S36" s="17"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
+    <row r="37" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A37" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30" t="s">
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="P37" s="30"/>
+      <c r="P37" s="58"/>
       <c r="Q37" s="16" t="s">
         <v>16</v>
       </c>
@@ -2071,7 +2073,7 @@
       </c>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="19.5" thickBot="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2095,13 +2097,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="E13:P15"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:Q18"/>
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="K34:N34"/>
@@ -2115,18 +2122,13 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="O31:P31"/>
-    <mergeCell ref="E13:P15"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -2143,457 +2145,460 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="3" width="10.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="90.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" style="1"/>
-    <col min="6" max="6" width="30.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.69921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="15.69921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.69921875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="20.69921875" style="1"/>
-    <col min="14" max="14" width="30.69921875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="90.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1"/>
+    <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.75" style="1" customWidth="1"/>
+    <col min="12" max="13" width="20.75" style="1"/>
+    <col min="14" max="14" width="30.75" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:15" ht="75" customHeight="1" thickBot="1">
+      <c r="A1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-    </row>
-    <row r="2" spans="1:15" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+    </row>
+    <row r="2" spans="1:15" ht="195" customHeight="1" thickBot="1">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="135" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="72">
         <v>1</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="72">
         <v>1</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="64">
         <v>1</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="N3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="75">
+      <c r="O3" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="66"/>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="135" customHeight="1" thickBot="1">
+      <c r="A4" s="81"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="67"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71" t="s">
+      <c r="K4" s="71"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="73">
+      <c r="O4" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
-    </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="C3:C4"/>
@@ -2604,9 +2609,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.19685039370078741"/>
